--- a/biology/Zoologie/Gondwanatitan/Gondwanatitan.xlsx
+++ b/biology/Zoologie/Gondwanatitan/Gondwanatitan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gondwanatitan faustoi
 Gondwanatitan est un genre éteint de dinosaures sauropodes du groupe des Titanosauria. Il a été découvert au Brésil qui faisait alors partie du supercontinent Gondwana à la fin du Crétacé supérieur, il y a environ 70 millions d'années.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gondwanatitan signifie « géant du Gondwana ». Ce dinosaure provenait du Gondwana, l'ancien continent de l'hémisphère sud, mais qui était déjà morcelé depuis le début du Crétacé. L'espèce Gondwanatitan faustoi a été nommée par Kellner et de Azevedo en l'honneur de Fausto L. de Souza Cunha, l'ancien conservateur du Musée national UFRJ qui a collecté et reconnu l'importance de ce spécimen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gondwanatitan signifie « géant du Gondwana ». Ce dinosaure provenait du Gondwana, l'ancien continent de l'hémisphère sud, mais qui était déjà morcelé depuis le début du Crétacé. L'espèce Gondwanatitan faustoi a été nommée par Kellner et de Azevedo en l'honneur de Fausto L. de Souza Cunha, l'ancien conservateur du Musée national UFRJ qui a collecté et reconnu l'importance de ce spécimen.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme la plupart des sauropodes, Gondwanatitan était un grand herbivore quadrupède doté d'un long cou. Ses proches parents sont les genres Aeolosaurus, Malawisaurus et Rinconsaurus[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des sauropodes, Gondwanatitan était un grand herbivore quadrupède doté d'un long cou. Ses proches parents sont les genres Aeolosaurus, Malawisaurus et Rinconsaurus,.
 </t>
         </is>
       </c>
